--- a/iselUssSyncV2/OutputWSL/20220426_1259_D50L474W90Q25U0.36H87G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1259_D50L474W90Q25U0.36H87G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>87.952182539682553</v>
+        <v>87.953113306703528</v>
       </c>
       <c r="F2" s="0">
-        <v>87.823492063492125</v>
+        <v>87.824422830513043</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>88.648853754940731</v>
+        <v>88.651128963214177</v>
       </c>
       <c r="F3" s="0">
-        <v>89.72316205533599</v>
+        <v>89.72543726360945</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>87.531304347826108</v>
+        <v>87.534055281465854</v>
       </c>
       <c r="F4" s="0">
-        <v>91.4589328063241</v>
+        <v>91.46168373996386</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>86.626972111553783</v>
+        <v>86.62977820175773</v>
       </c>
       <c r="F5" s="0">
-        <v>91.9936653386454</v>
+        <v>91.996471428849361</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>85.028932806324136</v>
+        <v>85.031787158521766</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,7 +220,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>82.692896825396829</v>
+        <v>82.695792545017625</v>
       </c>
       <c r="F7" s="0"/>
     </row>
@@ -238,10 +238,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>77.983266932270936</v>
+        <v>77.986197124744365</v>
       </c>
       <c r="F8" s="0">
-        <v>87.620876494023918</v>
+        <v>87.623806686497346</v>
       </c>
     </row>
     <row r="9">
@@ -258,7 +258,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>75.516294820717121</v>
+        <v>75.519236871851859</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -276,7 +276,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>72.363968253968238</v>
+        <v>72.36692106063299</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -294,7 +294,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>69.284246031746036</v>
+        <v>69.287208490809505</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -312,7 +312,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>67.291872509960172</v>
+        <v>67.294839381548769</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -330,7 +330,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>65.607976190476208</v>
+        <v>65.610947198807139</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -348,7 +348,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>64.088207171314735</v>
+        <v>64.091182040605176</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -366,10 +366,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>62.387619047619062</v>
+        <v>62.390597502086152</v>
       </c>
       <c r="F15" s="0">
-        <v>22.158968253968254</v>
+        <v>22.161946708435355</v>
       </c>
     </row>
     <row r="16">
@@ -386,10 +386,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>58.918326693227094</v>
+        <v>58.921311490699082</v>
       </c>
       <c r="F16" s="0">
-        <v>22.689442231075706</v>
+        <v>22.692427028547698</v>
       </c>
     </row>
     <row r="17">
@@ -406,10 +406,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>55.523492063492064</v>
+        <v>55.526482100837654</v>
       </c>
       <c r="F17" s="0">
-        <v>21.937976190476185</v>
+        <v>21.940966227821775</v>
       </c>
     </row>
     <row r="18">
@@ -426,10 +426,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>52.269322709163347</v>
+        <v>52.272316883251243</v>
       </c>
       <c r="F18" s="0">
-        <v>22.873266932270919</v>
+        <v>22.876261106358829</v>
       </c>
     </row>
     <row r="19">
@@ -446,10 +446,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>46.879920634920623</v>
+        <v>46.882919773099324</v>
       </c>
       <c r="F19" s="0">
-        <v>23.954126984126987</v>
+        <v>23.95712612230567</v>
       </c>
     </row>
     <row r="20">
@@ -466,10 +466,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>41.287619047619046</v>
+        <v>41.290618185797733</v>
       </c>
       <c r="F20" s="0">
-        <v>33.11492063492063</v>
+        <v>33.117919773099324</v>
       </c>
     </row>
     <row r="21">
@@ -486,10 +486,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>36.608809523809533</v>
+        <v>36.611801767417674</v>
       </c>
       <c r="F21" s="0">
-        <v>58.753809523809515</v>
+        <v>58.75680176741767</v>
       </c>
     </row>
     <row r="22">
@@ -506,10 +506,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>32.939999999999998</v>
+        <v>32.942978454467109</v>
       </c>
       <c r="F22" s="0">
-        <v>60.895634920634933</v>
+        <v>60.898613375102009</v>
       </c>
     </row>
     <row r="23">
@@ -526,10 +526,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>30.40884462151395</v>
+        <v>30.411802392269479</v>
       </c>
       <c r="F23" s="0">
-        <v>51.230916334661366</v>
+        <v>51.233874105416895</v>
       </c>
     </row>
     <row r="24">
@@ -546,10 +546,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>29.116972111553796</v>
+        <v>29.119867831174588</v>
       </c>
       <c r="F24" s="0">
-        <v>46.885776892430286</v>
+        <v>46.888672612051074</v>
       </c>
     </row>
     <row r="25">
@@ -566,10 +566,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>35.588764940239038</v>
+        <v>35.591571030443006</v>
       </c>
       <c r="F25" s="0">
-        <v>49.543745019920316</v>
+        <v>49.546551110124284</v>
       </c>
     </row>
     <row r="26">
@@ -586,10 +586,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>56.97468253968254</v>
+        <v>56.977371422187566</v>
       </c>
       <c r="F26" s="0">
-        <v>45.63646825396826</v>
+        <v>45.639157136473287</v>
       </c>
     </row>
     <row r="27">
@@ -606,10 +606,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>49.675856573705175</v>
+        <v>49.678400670229166</v>
       </c>
       <c r="F27" s="0">
-        <v>50.588087649402382</v>
+        <v>50.59063174592638</v>
       </c>
     </row>
     <row r="28">
@@ -626,10 +626,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>53.005258964143422</v>
+        <v>53.007630696404284</v>
       </c>
       <c r="F28" s="0">
-        <v>55.780836653386459</v>
+        <v>55.783208385647292</v>
       </c>
     </row>
     <row r="29">
@@ -646,10 +646,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>62.086944444444441</v>
+        <v>62.089116234160045</v>
       </c>
       <c r="F29" s="0">
-        <v>53.929007936507936</v>
+        <v>53.931179726223519</v>
       </c>
     </row>
     <row r="30">
@@ -666,10 +666,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>58.838571428571427</v>
+        <v>58.840260598350227</v>
       </c>
       <c r="F30" s="0">
-        <v>55.104365079365074</v>
+        <v>55.106054249143888</v>
       </c>
     </row>
   </sheetData>
